--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_11-47.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_11-47.xlsx
@@ -53,10 +53,22 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>HEALSEC 20MG 14 CAPS</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>0:5</t>
   </si>
   <si>
     <t>PANTOLOC 40MG 14 TAB</t>
@@ -778,17 +790,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -796,7 +808,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -804,17 +816,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -822,7 +834,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -830,17 +842,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -848,7 +860,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -856,17 +868,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -888,11 +900,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -900,7 +912,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -908,17 +920,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -926,7 +938,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -934,17 +946,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -960,17 +972,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -978,7 +990,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -986,17 +998,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1004,7 +1016,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1012,51 +1024,103 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" ht="26.25" customHeight="1">
-      <c r="K17" s="10">
-        <v>446</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c t="s" r="B17" s="7">
         <v>33</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c t="s" r="F18" s="12">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c t="s" r="H17" s="8">
         <v>34</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c t="s" r="I18" s="14">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9">
+        <v>20</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c t="s" r="N17" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5" customHeight="1">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c t="s" r="B18" s="7">
         <v>35</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c t="s" r="H18" s="8">
+        <v>36</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9">
+        <v>48</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c t="s" r="N18" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="K19" s="10">
+        <v>546</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="11">
+        <v>37</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c t="s" r="F20" s="12">
+        <v>38</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c t="s" r="I20" s="14">
+        <v>39</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="56">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1103,10 +1167,16 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:N20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
